--- a/documentation/data_architecture.xlsx
+++ b/documentation/data_architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramesh\Documents\_dev\_git\data-analytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C696B2-6396-423A-9AC4-EA2E24D89980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CCB789-B99C-4CAB-9DA0-AF5F19018C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A70F2C6-A550-4907-969C-A142FF98BF52}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Time - Table" sheetId="5" r:id="rId5"/>
     <sheet name="Location - Table" sheetId="6" r:id="rId6"/>
     <sheet name="Fact - Table" sheetId="7" r:id="rId7"/>
+    <sheet name="Other Possible Metrics" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
   <si>
     <t>Design Considerations:</t>
   </si>
@@ -58,18 +59,6 @@
     <t>The brief summary of the above data flow architecture</t>
   </si>
   <si>
-    <t>1. The source data made available in a flie landing area ready for data ingestion</t>
-  </si>
-  <si>
-    <t>2. Source data ingested and loaded into staging area. Data stored in a DB table close source/raw format with no transforamtion</t>
-  </si>
-  <si>
-    <t>3. Data warehouse layer where data from staging area were read and stored in a meaningful conformed dimension, facts and measures</t>
-  </si>
-  <si>
-    <t>4. Presentation layer which consumes warehouse dimensions and facts for reporting and analytics</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -136,9 +125,6 @@
     <t>Effective_To</t>
   </si>
   <si>
-    <t>Transaction_Type</t>
-  </si>
-  <si>
     <t>Source_System</t>
   </si>
   <si>
@@ -160,9 +146,6 @@
     <t>From source file</t>
   </si>
   <si>
-    <t>Audit column - to capture the date timestamp the data valid from - usually date the record inserted into the table</t>
-  </si>
-  <si>
     <t>Audit column - to capture the date timestamp the data valid till - usually date the high date in future</t>
   </si>
   <si>
@@ -170,9 +153,6 @@
   </si>
   <si>
     <t>Audit column - to capture the id of the process/user who updated the data in the table</t>
-  </si>
-  <si>
-    <t>Audit column - to capture whether data row was inserted or updated ('I'/'U')</t>
   </si>
   <si>
     <t>Audit column - to capture source system name</t>
@@ -509,12 +489,141 @@
   <si>
     <t>DurableKey in source</t>
   </si>
+  <si>
+    <t>Inserted_On</t>
+  </si>
+  <si>
+    <t>Updated_On</t>
+  </si>
+  <si>
+    <t>Audit column - to capture the date timestamp the data valid from - usually the agreed date from past or date the record inserted into the table</t>
+  </si>
+  <si>
+    <t>Audit column - to capture the date time the record inserted into the table</t>
+  </si>
+  <si>
+    <t>Audit column - to capture the date time the record updated</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ingestion Layer: The source data made available in a file landing area ready for data ingestion</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard Data Layer: Source data ingested and loaded into this staging area. Data stored in source/raw format with no transformation</t>
+    </r>
+  </si>
+  <si>
+    <t>ETL Processing</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Presentation Layer: which consumes warehouse dimensions and facts for reporting and analytics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data warehouse Layer: In this layer where data from standard data layer (staging area) were read, processed and stored in a meaningful conformed dimension, facts, measures and business logic applied</t>
+    </r>
+  </si>
+  <si>
+    <t>Other possible metrics that could be derived from the dataset:</t>
+  </si>
+  <si>
+    <t>1. Pedestrian count by hour, weekends, weekdays, significant events like public holidays, sporting events</t>
+  </si>
+  <si>
+    <t>3. Forecasting based on historical data</t>
+  </si>
+  <si>
+    <t>4. Utilising other datasets like weather data, events data to identify correlations</t>
+  </si>
+  <si>
+    <t>2. Other variants of count like average, minimum, maximum and ranges</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +646,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -653,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,29 +787,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,6 +805,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,7 +1358,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>147638</xdr:rowOff>
     </xdr:from>
@@ -1260,8 +1381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371849" y="1100138"/>
-          <a:ext cx="1304926" cy="485775"/>
+          <a:off x="3048000" y="1100138"/>
+          <a:ext cx="1628775" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,13 +1417,8 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Staging Area - Data</a:t>
+            <a:t>Staging Area - Standard Data Layer</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t> Processing Layer</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2301,6 +2417,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Single gear with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D08EF5-A121-6D26-04DD-325E070D5687}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="1866900"/>
+          <a:ext cx="323850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3244,524 +3413,526 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -3774,23 +3945,23 @@
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="B33" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>6</v>
+      <c r="B34" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>7</v>
+      <c r="B35" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>8</v>
+      <c r="B36" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABE8A8C-A772-44DA-BA0F-EE8A03CB2137}">
-  <dimension ref="A2:D23"/>
+  <dimension ref="A2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3815,210 +3986,221 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -4043,61 +4225,61 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
-        <v>51</v>
+      <c r="D6" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="D8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -4107,192 +4289,192 @@
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>62</v>
+      <c r="C36" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C43" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" s="13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="19" t="s">
+      <c r="H46" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C39" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C40" s="19" t="s">
+      <c r="H47" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C41" s="19" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C44" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="M45" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M47" s="23" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C48" s="19" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="M48" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="21" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58" s="23" t="s">
-        <v>15</v>
+      <c r="C58" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59" s="19" t="s">
-        <v>73</v>
+      <c r="C59" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="19" t="s">
-        <v>74</v>
+      <c r="C60" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61" s="19" t="s">
-        <v>75</v>
+      <c r="C61" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="20" t="s">
-        <v>76</v>
+      <c r="C62" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4307,7 +4489,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE20803-BCE5-4505-A32A-FA84D59F328A}">
-  <dimension ref="A2:D25"/>
+  <dimension ref="A2:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4320,211 +4502,230 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4534,7 +4735,329 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE33E5A9-019A-42A0-A634-C3292ECA27C3}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7D66CF-4946-415E-A9FA-6D7F454344E7}">
+  <dimension ref="A2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39873BAD-2FE1-426C-85C4-DCF28A01826A}">
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4552,141 +5075,169 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>29</v>
+      <c r="B11" t="s">
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4694,319 +5245,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7D66CF-4946-415E-A9FA-6D7F454344E7}">
-  <dimension ref="A2:D14"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0547480-8102-4112-8034-AC5A2F05F8AE}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39873BAD-2FE1-426C-85C4-DCF28A01826A}">
-  <dimension ref="A2:D18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>